--- a/Notebooks/moa_annotations/DiSCoVER_drug_annotations_blank-is-NaN.xlsx
+++ b/Notebooks/moa_annotations/DiSCoVER_drug_annotations_blank-is-NaN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2795">
   <si>
     <t>ccle_drug_name</t>
   </si>
@@ -7832,6 +7832,9 @@
   </si>
   <si>
     <t>ZSTK-474; ZSTK 474; ZSTK474; KIN001-167</t>
+  </si>
+  <si>
+    <t>TAK1</t>
   </si>
   <si>
     <t>NaN</t>
@@ -8817,7 +8820,7 @@
         <v>2397</v>
       </c>
       <c r="L2" t="s">
-        <v>1219</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8834,7 +8837,7 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8940,7 +8943,7 @@
         <v>2399</v>
       </c>
       <c r="L8" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8963,7 +8966,7 @@
         <v>2400</v>
       </c>
       <c r="L9" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9003,7 +9006,7 @@
         <v>1439</v>
       </c>
       <c r="L11" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9063,7 +9066,7 @@
         <v>1441</v>
       </c>
       <c r="L14" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9198,7 +9201,7 @@
         <v>2403</v>
       </c>
       <c r="L20" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -9261,7 +9264,7 @@
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -9281,7 +9284,7 @@
         <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9324,7 +9327,7 @@
         <v>2405</v>
       </c>
       <c r="L26" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -9344,7 +9347,7 @@
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9387,7 +9390,7 @@
         <v>778</v>
       </c>
       <c r="L29" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -9453,7 +9456,7 @@
         <v>2408</v>
       </c>
       <c r="L32" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -9493,7 +9496,7 @@
         <v>1447</v>
       </c>
       <c r="L34" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9510,7 +9513,7 @@
         <v>1448</v>
       </c>
       <c r="L35" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9550,7 +9553,7 @@
         <v>1449</v>
       </c>
       <c r="L37" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9602,7 +9605,7 @@
         <v>2410</v>
       </c>
       <c r="L39" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9685,7 +9688,7 @@
         <v>1451</v>
       </c>
       <c r="L43" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9705,7 +9708,7 @@
         <v>1452</v>
       </c>
       <c r="L44" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9737,7 +9740,7 @@
         <v>2412</v>
       </c>
       <c r="L45" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9789,7 +9792,7 @@
         <v>2413</v>
       </c>
       <c r="L47" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9821,7 +9824,7 @@
         <v>2414</v>
       </c>
       <c r="L48" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9898,7 +9901,7 @@
         <v>62</v>
       </c>
       <c r="L52" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9958,7 +9961,7 @@
         <v>1457</v>
       </c>
       <c r="L55" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10010,7 +10013,7 @@
         <v>2416</v>
       </c>
       <c r="L57" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10027,7 +10030,7 @@
         <v>68</v>
       </c>
       <c r="L58" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10044,7 +10047,7 @@
         <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -10076,7 +10079,7 @@
         <v>2417</v>
       </c>
       <c r="L60" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10105,7 +10108,7 @@
         <v>790</v>
       </c>
       <c r="L61" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10211,7 +10214,7 @@
         <v>2419</v>
       </c>
       <c r="L66" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10288,7 +10291,7 @@
         <v>1461</v>
       </c>
       <c r="L70" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10308,7 +10311,7 @@
         <v>1462</v>
       </c>
       <c r="L71" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10360,7 +10363,7 @@
         <v>2420</v>
       </c>
       <c r="L73" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -10415,7 +10418,7 @@
         <v>2422</v>
       </c>
       <c r="L75" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -10447,7 +10450,7 @@
         <v>2423</v>
       </c>
       <c r="L76" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -10479,7 +10482,7 @@
         <v>2424</v>
       </c>
       <c r="L77" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -10511,7 +10514,7 @@
         <v>2425</v>
       </c>
       <c r="L78" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -10571,7 +10574,7 @@
         <v>1466</v>
       </c>
       <c r="L81" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -10628,7 +10631,7 @@
         <v>1469</v>
       </c>
       <c r="L84" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -10648,7 +10651,7 @@
         <v>1470</v>
       </c>
       <c r="L85" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -10665,7 +10668,7 @@
         <v>1471</v>
       </c>
       <c r="L86" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -10682,7 +10685,7 @@
         <v>1472</v>
       </c>
       <c r="L87" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -10699,7 +10702,7 @@
         <v>1473</v>
       </c>
       <c r="L88" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -10736,7 +10739,7 @@
         <v>1475</v>
       </c>
       <c r="L90" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -10753,7 +10756,7 @@
         <v>1476</v>
       </c>
       <c r="L91" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -10790,7 +10793,7 @@
         <v>1478</v>
       </c>
       <c r="L93" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -10807,7 +10810,7 @@
         <v>1479</v>
       </c>
       <c r="L94" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -10864,7 +10867,7 @@
         <v>1482</v>
       </c>
       <c r="L97" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -10881,7 +10884,7 @@
         <v>1483</v>
       </c>
       <c r="L98" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -10898,7 +10901,7 @@
         <v>1484</v>
       </c>
       <c r="L99" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -10915,7 +10918,7 @@
         <v>1485</v>
       </c>
       <c r="L100" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -10932,7 +10935,7 @@
         <v>1486</v>
       </c>
       <c r="L101" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -10949,7 +10952,7 @@
         <v>1487</v>
       </c>
       <c r="L102" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -10966,7 +10969,7 @@
         <v>1488</v>
       </c>
       <c r="L103" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -11003,7 +11006,7 @@
         <v>1490</v>
       </c>
       <c r="L105" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -11020,7 +11023,7 @@
         <v>1491</v>
       </c>
       <c r="L106" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -11040,7 +11043,7 @@
         <v>1492</v>
       </c>
       <c r="L107" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -11057,7 +11060,7 @@
         <v>1493</v>
       </c>
       <c r="L108" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -11074,7 +11077,7 @@
         <v>1494</v>
       </c>
       <c r="L109" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -11111,7 +11114,7 @@
         <v>1496</v>
       </c>
       <c r="L111" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -11148,7 +11151,7 @@
         <v>1498</v>
       </c>
       <c r="L113" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -11185,7 +11188,7 @@
         <v>1500</v>
       </c>
       <c r="L115" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -11202,7 +11205,7 @@
         <v>1501</v>
       </c>
       <c r="L116" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -11219,7 +11222,7 @@
         <v>1502</v>
       </c>
       <c r="L117" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -11236,7 +11239,7 @@
         <v>1503</v>
       </c>
       <c r="L118" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -11253,7 +11256,7 @@
         <v>1504</v>
       </c>
       <c r="L119" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -11290,7 +11293,7 @@
         <v>1506</v>
       </c>
       <c r="L121" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -11307,7 +11310,7 @@
         <v>1507</v>
       </c>
       <c r="L122" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -11324,7 +11327,7 @@
         <v>1508</v>
       </c>
       <c r="L123" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -11361,7 +11364,7 @@
         <v>1510</v>
       </c>
       <c r="L125" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -11378,7 +11381,7 @@
         <v>1511</v>
       </c>
       <c r="L126" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -11395,7 +11398,7 @@
         <v>1512</v>
       </c>
       <c r="L127" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -11412,7 +11415,7 @@
         <v>1513</v>
       </c>
       <c r="L128" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -11429,7 +11432,7 @@
         <v>1514</v>
       </c>
       <c r="L129" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -11446,7 +11449,7 @@
         <v>1515</v>
       </c>
       <c r="L130" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -11466,7 +11469,7 @@
         <v>1516</v>
       </c>
       <c r="L131" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -11503,7 +11506,7 @@
         <v>1518</v>
       </c>
       <c r="L133" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -11520,7 +11523,7 @@
         <v>1519</v>
       </c>
       <c r="L134" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -11557,7 +11560,7 @@
         <v>1521</v>
       </c>
       <c r="L136" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -11574,7 +11577,7 @@
         <v>1522</v>
       </c>
       <c r="L137" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -11591,7 +11594,7 @@
         <v>1523</v>
       </c>
       <c r="L138" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -11608,7 +11611,7 @@
         <v>1524</v>
       </c>
       <c r="L139" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -11625,7 +11628,7 @@
         <v>1525</v>
       </c>
       <c r="L140" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -11682,7 +11685,7 @@
         <v>1528</v>
       </c>
       <c r="L143" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -11699,7 +11702,7 @@
         <v>1529</v>
       </c>
       <c r="L144" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -11716,7 +11719,7 @@
         <v>1530</v>
       </c>
       <c r="L145" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -11733,7 +11736,7 @@
         <v>1531</v>
       </c>
       <c r="L146" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -11790,7 +11793,7 @@
         <v>1534</v>
       </c>
       <c r="L149" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -11827,7 +11830,7 @@
         <v>1536</v>
       </c>
       <c r="L151" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -11864,7 +11867,7 @@
         <v>1538</v>
       </c>
       <c r="L153" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -11881,7 +11884,7 @@
         <v>1539</v>
       </c>
       <c r="L154" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -11898,7 +11901,7 @@
         <v>1540</v>
       </c>
       <c r="L155" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -11915,7 +11918,7 @@
         <v>1541</v>
       </c>
       <c r="L156" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -11932,7 +11935,7 @@
         <v>1542</v>
       </c>
       <c r="L157" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -11949,7 +11952,7 @@
         <v>1543</v>
       </c>
       <c r="L158" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -11966,7 +11969,7 @@
         <v>1544</v>
       </c>
       <c r="L159" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -11983,7 +11986,7 @@
         <v>1545</v>
       </c>
       <c r="L160" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -12020,7 +12023,7 @@
         <v>1547</v>
       </c>
       <c r="L162" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -12057,7 +12060,7 @@
         <v>1549</v>
       </c>
       <c r="L164" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -12074,7 +12077,7 @@
         <v>1550</v>
       </c>
       <c r="L165" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -12131,7 +12134,7 @@
         <v>1553</v>
       </c>
       <c r="L168" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -12148,7 +12151,7 @@
         <v>1554</v>
       </c>
       <c r="L169" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -12274,7 +12277,7 @@
         <v>2427</v>
       </c>
       <c r="L175" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -12314,7 +12317,7 @@
         <v>1558</v>
       </c>
       <c r="L177" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -12346,7 +12349,7 @@
         <v>2428</v>
       </c>
       <c r="L178" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -12406,7 +12409,7 @@
         <v>191</v>
       </c>
       <c r="L181" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -12606,7 +12609,7 @@
         <v>1564</v>
       </c>
       <c r="L191" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -12666,7 +12669,7 @@
         <v>204</v>
       </c>
       <c r="L194" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -12686,7 +12689,7 @@
         <v>205</v>
       </c>
       <c r="L195" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -12775,7 +12778,7 @@
         <v>2433</v>
       </c>
       <c r="L199" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -12795,7 +12798,7 @@
         <v>1567</v>
       </c>
       <c r="L200" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -12827,7 +12830,7 @@
         <v>2434</v>
       </c>
       <c r="L201" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -12844,7 +12847,7 @@
         <v>212</v>
       </c>
       <c r="L202" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -12861,7 +12864,7 @@
         <v>1568</v>
       </c>
       <c r="L203" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -12981,7 +12984,7 @@
         <v>1571</v>
       </c>
       <c r="L209" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -12998,7 +13001,7 @@
         <v>1572</v>
       </c>
       <c r="L210" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -13015,7 +13018,7 @@
         <v>1573</v>
       </c>
       <c r="L211" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -13032,7 +13035,7 @@
         <v>1574</v>
       </c>
       <c r="L212" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -13049,7 +13052,7 @@
         <v>1575</v>
       </c>
       <c r="L213" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -13109,7 +13112,7 @@
         <v>226</v>
       </c>
       <c r="L216" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -13149,7 +13152,7 @@
         <v>1576</v>
       </c>
       <c r="L218" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -13169,7 +13172,7 @@
         <v>1577</v>
       </c>
       <c r="L219" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -13186,7 +13189,7 @@
         <v>1578</v>
       </c>
       <c r="L220" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -13203,7 +13206,7 @@
         <v>1579</v>
       </c>
       <c r="L221" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -13289,7 +13292,7 @@
         <v>1581</v>
       </c>
       <c r="L225" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -13327,7 +13330,7 @@
         <v>2440</v>
       </c>
       <c r="L226" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -13347,7 +13350,7 @@
         <v>1582</v>
       </c>
       <c r="L227" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -13364,7 +13367,7 @@
         <v>1583</v>
       </c>
       <c r="L228" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -13387,7 +13390,7 @@
         <v>2441</v>
       </c>
       <c r="L229" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -13404,7 +13407,7 @@
         <v>240</v>
       </c>
       <c r="L230" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -13484,7 +13487,7 @@
         <v>244</v>
       </c>
       <c r="L234" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -13524,7 +13527,7 @@
         <v>246</v>
       </c>
       <c r="L236" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -13541,7 +13544,7 @@
         <v>1584</v>
       </c>
       <c r="L237" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -13590,7 +13593,7 @@
         <v>249</v>
       </c>
       <c r="L239" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -13645,7 +13648,7 @@
         <v>2446</v>
       </c>
       <c r="L241" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -13677,7 +13680,7 @@
         <v>2447</v>
       </c>
       <c r="L242" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -13694,7 +13697,7 @@
         <v>253</v>
       </c>
       <c r="L243" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -13726,7 +13729,7 @@
         <v>2448</v>
       </c>
       <c r="L244" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -13806,7 +13809,7 @@
         <v>258</v>
       </c>
       <c r="L248" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -13846,7 +13849,7 @@
         <v>260</v>
       </c>
       <c r="L250" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -13950,7 +13953,7 @@
         <v>2451</v>
       </c>
       <c r="L254" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -13982,7 +13985,7 @@
         <v>2452</v>
       </c>
       <c r="L255" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -14002,7 +14005,7 @@
         <v>266</v>
       </c>
       <c r="L256" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -14042,7 +14045,7 @@
         <v>1588</v>
       </c>
       <c r="L258" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -14140,7 +14143,7 @@
         <v>2456</v>
       </c>
       <c r="L262" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -14180,7 +14183,7 @@
         <v>274</v>
       </c>
       <c r="L264" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -14223,7 +14226,7 @@
         <v>276</v>
       </c>
       <c r="L266" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -14240,7 +14243,7 @@
         <v>277</v>
       </c>
       <c r="L267" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -14298,7 +14301,7 @@
         <v>1589</v>
       </c>
       <c r="L269" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -14350,7 +14353,7 @@
         <v>2460</v>
       </c>
       <c r="L271" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -14370,7 +14373,7 @@
         <v>1590</v>
       </c>
       <c r="L272" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -14442,7 +14445,7 @@
         <v>840</v>
       </c>
       <c r="L275" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -14557,7 +14560,7 @@
         <v>2463</v>
       </c>
       <c r="L280" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -14574,7 +14577,7 @@
         <v>1593</v>
       </c>
       <c r="L281" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -14591,7 +14594,7 @@
         <v>1594</v>
       </c>
       <c r="L282" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -14694,7 +14697,7 @@
         <v>1596</v>
       </c>
       <c r="L287" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -14711,7 +14714,7 @@
         <v>1597</v>
       </c>
       <c r="L288" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -14795,7 +14798,7 @@
         <v>2466</v>
       </c>
       <c r="L291" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -14878,7 +14881,7 @@
         <v>305</v>
       </c>
       <c r="L295" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -14895,7 +14898,7 @@
         <v>1600</v>
       </c>
       <c r="L296" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -14935,7 +14938,7 @@
         <v>1602</v>
       </c>
       <c r="L298" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -14981,7 +14984,7 @@
         <v>2469</v>
       </c>
       <c r="L300" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -15024,7 +15027,7 @@
         <v>2470</v>
       </c>
       <c r="L302" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -15087,7 +15090,7 @@
         <v>853</v>
       </c>
       <c r="L305" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -15153,7 +15156,7 @@
         <v>2473</v>
       </c>
       <c r="L308" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -15322,7 +15325,7 @@
         <v>859</v>
       </c>
       <c r="L316" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -15342,7 +15345,7 @@
         <v>860</v>
       </c>
       <c r="L317" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -15437,7 +15440,7 @@
         <v>2478</v>
       </c>
       <c r="L321" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -15457,7 +15460,7 @@
         <v>1611</v>
       </c>
       <c r="L322" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -15549,7 +15552,7 @@
         <v>2479</v>
       </c>
       <c r="L326" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -15566,7 +15569,7 @@
         <v>337</v>
       </c>
       <c r="L327" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -15598,7 +15601,7 @@
         <v>2480</v>
       </c>
       <c r="L328" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -15738,7 +15741,7 @@
         <v>345</v>
       </c>
       <c r="L335" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -15755,7 +15758,7 @@
         <v>346</v>
       </c>
       <c r="L336" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -15815,7 +15818,7 @@
         <v>1616</v>
       </c>
       <c r="L339" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -15875,7 +15878,7 @@
         <v>352</v>
       </c>
       <c r="L342" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15978,7 +15981,7 @@
         <v>1619</v>
       </c>
       <c r="L347" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15998,7 +16001,7 @@
         <v>1620</v>
       </c>
       <c r="L348" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -16018,7 +16021,7 @@
         <v>1621</v>
       </c>
       <c r="L349" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -16038,7 +16041,7 @@
         <v>1622</v>
       </c>
       <c r="L350" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -16070,7 +16073,7 @@
         <v>2485</v>
       </c>
       <c r="L351" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -16187,7 +16190,7 @@
         <v>1626</v>
       </c>
       <c r="L357" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -16247,7 +16250,7 @@
         <v>1629</v>
       </c>
       <c r="L360" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -16554,7 +16557,7 @@
         <v>731</v>
       </c>
       <c r="L374" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16612,7 +16615,7 @@
         <v>1637</v>
       </c>
       <c r="L376" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16692,7 +16695,7 @@
         <v>390</v>
       </c>
       <c r="L380" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16735,7 +16738,7 @@
         <v>2492</v>
       </c>
       <c r="L382" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16790,7 +16793,7 @@
         <v>2494</v>
       </c>
       <c r="L384" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16822,7 +16825,7 @@
         <v>2495</v>
       </c>
       <c r="L385" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16882,7 +16885,7 @@
         <v>1640</v>
       </c>
       <c r="L388" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16965,7 +16968,7 @@
         <v>1643</v>
       </c>
       <c r="L392" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -17017,7 +17020,7 @@
         <v>2497</v>
       </c>
       <c r="L394" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17089,7 +17092,7 @@
         <v>2498</v>
       </c>
       <c r="L397" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17109,7 +17112,7 @@
         <v>408</v>
       </c>
       <c r="L398" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17141,7 +17144,7 @@
         <v>2499</v>
       </c>
       <c r="L399" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17161,7 +17164,7 @@
         <v>1647</v>
       </c>
       <c r="L400" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17224,7 +17227,7 @@
         <v>2500</v>
       </c>
       <c r="L403" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17241,7 +17244,7 @@
         <v>414</v>
       </c>
       <c r="L404" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17284,7 +17287,7 @@
         <v>1650</v>
       </c>
       <c r="L406" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17336,7 +17339,7 @@
         <v>2502</v>
       </c>
       <c r="L408" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17373,7 +17376,7 @@
         <v>1653</v>
       </c>
       <c r="L410" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17450,7 +17453,7 @@
         <v>1657</v>
       </c>
       <c r="L414" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17487,7 +17490,7 @@
         <v>1659</v>
       </c>
       <c r="L416" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17504,7 +17507,7 @@
         <v>1660</v>
       </c>
       <c r="L417" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17644,7 +17647,7 @@
         <v>1667</v>
       </c>
       <c r="L424" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17664,7 +17667,7 @@
         <v>435</v>
       </c>
       <c r="L425" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17687,7 +17690,7 @@
         <v>2503</v>
       </c>
       <c r="L426" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17744,7 +17747,7 @@
         <v>439</v>
       </c>
       <c r="L429" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -17764,7 +17767,7 @@
         <v>440</v>
       </c>
       <c r="L430" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -17784,7 +17787,7 @@
         <v>1669</v>
       </c>
       <c r="L431" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -17801,7 +17804,7 @@
         <v>442</v>
       </c>
       <c r="L432" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -17853,7 +17856,7 @@
         <v>2504</v>
       </c>
       <c r="L434" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -17873,7 +17876,7 @@
         <v>445</v>
       </c>
       <c r="L435" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -17893,7 +17896,7 @@
         <v>446</v>
       </c>
       <c r="L436" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -17913,7 +17916,7 @@
         <v>1670</v>
       </c>
       <c r="L437" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -17933,7 +17936,7 @@
         <v>448</v>
       </c>
       <c r="L438" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -17953,7 +17956,7 @@
         <v>449</v>
       </c>
       <c r="L439" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -17973,7 +17976,7 @@
         <v>1671</v>
       </c>
       <c r="L440" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -17993,7 +17996,7 @@
         <v>451</v>
       </c>
       <c r="L441" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18030,7 +18033,7 @@
         <v>453</v>
       </c>
       <c r="L443" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18047,7 +18050,7 @@
         <v>454</v>
       </c>
       <c r="L444" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18084,7 +18087,7 @@
         <v>456</v>
       </c>
       <c r="L446" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18121,7 +18124,7 @@
         <v>1672</v>
       </c>
       <c r="L448" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18144,7 +18147,7 @@
         <v>2505</v>
       </c>
       <c r="L449" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18202,7 +18205,7 @@
         <v>2506</v>
       </c>
       <c r="L451" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18222,7 +18225,7 @@
         <v>462</v>
       </c>
       <c r="L452" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18239,7 +18242,7 @@
         <v>1673</v>
       </c>
       <c r="L453" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -18445,7 +18448,7 @@
         <v>1680</v>
       </c>
       <c r="L463" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -18649,7 +18652,7 @@
         <v>2512</v>
       </c>
       <c r="L472" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -18718,7 +18721,7 @@
         <v>485</v>
       </c>
       <c r="L475" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -18741,7 +18744,7 @@
         <v>2514</v>
       </c>
       <c r="L476" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -18773,7 +18776,7 @@
         <v>2515</v>
       </c>
       <c r="L477" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -18848,7 +18851,7 @@
         <v>490</v>
       </c>
       <c r="L480" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -18865,7 +18868,7 @@
         <v>491</v>
       </c>
       <c r="L481" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -18897,7 +18900,7 @@
         <v>2518</v>
       </c>
       <c r="L482" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -18932,7 +18935,7 @@
         <v>2519</v>
       </c>
       <c r="L483" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -19001,7 +19004,7 @@
         <v>496</v>
       </c>
       <c r="L486" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -19035,7 +19038,7 @@
         <v>498</v>
       </c>
       <c r="L488" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -19093,7 +19096,7 @@
         <v>2522</v>
       </c>
       <c r="L490" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -19142,7 +19145,7 @@
         <v>2523</v>
       </c>
       <c r="L492" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -19260,7 +19263,7 @@
         <v>2526</v>
       </c>
       <c r="L497" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -19343,7 +19346,7 @@
         <v>1692</v>
       </c>
       <c r="L501" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -19386,7 +19389,7 @@
         <v>2528</v>
       </c>
       <c r="L503" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -19469,7 +19472,7 @@
         <v>2529</v>
       </c>
       <c r="L507" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -19498,7 +19501,7 @@
         <v>2530</v>
       </c>
       <c r="L508" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -19530,7 +19533,7 @@
         <v>2531</v>
       </c>
       <c r="L509" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -19605,7 +19608,7 @@
         <v>2533</v>
       </c>
       <c r="L512" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -19637,7 +19640,7 @@
         <v>2534</v>
       </c>
       <c r="L513" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -19654,7 +19657,7 @@
         <v>524</v>
       </c>
       <c r="L514" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -19674,7 +19677,7 @@
         <v>525</v>
       </c>
       <c r="L515" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -19706,7 +19709,7 @@
         <v>2535</v>
       </c>
       <c r="L516" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -19775,7 +19778,7 @@
         <v>529</v>
       </c>
       <c r="L519" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -19792,7 +19795,7 @@
         <v>1698</v>
       </c>
       <c r="L520" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -19809,7 +19812,7 @@
         <v>1699</v>
       </c>
       <c r="L521" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -19887,7 +19890,7 @@
         <v>2537</v>
       </c>
       <c r="L524" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -19910,7 +19913,7 @@
         <v>2538</v>
       </c>
       <c r="L525" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -19987,7 +19990,7 @@
         <v>539</v>
       </c>
       <c r="L529" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -20130,7 +20133,7 @@
         <v>930</v>
       </c>
       <c r="L536" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -20351,7 +20354,7 @@
         <v>742</v>
       </c>
       <c r="L546" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -20394,7 +20397,7 @@
         <v>558</v>
       </c>
       <c r="L548" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -20454,7 +20457,7 @@
         <v>561</v>
       </c>
       <c r="L551" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -20474,7 +20477,7 @@
         <v>1711</v>
       </c>
       <c r="L552" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="553" spans="1:12">
@@ -20514,7 +20517,7 @@
         <v>1712</v>
       </c>
       <c r="L554" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -20589,7 +20592,7 @@
         <v>2544</v>
       </c>
       <c r="L557" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -20632,7 +20635,7 @@
         <v>569</v>
       </c>
       <c r="L559" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="560" spans="1:12">
@@ -20652,7 +20655,7 @@
         <v>1713</v>
       </c>
       <c r="L560" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="561" spans="1:12">
@@ -20713,7 +20716,7 @@
         <v>2547</v>
       </c>
       <c r="L562" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="563" spans="1:12">
@@ -20816,7 +20819,7 @@
         <v>2548</v>
       </c>
       <c r="L567" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="568" spans="1:12">
@@ -20948,7 +20951,7 @@
         <v>2552</v>
       </c>
       <c r="L573" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="574" spans="1:12">
@@ -21018,7 +21021,7 @@
         <v>2554</v>
       </c>
       <c r="L575" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -21038,7 +21041,7 @@
         <v>1721</v>
       </c>
       <c r="L576" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="577" spans="1:12">
@@ -21058,7 +21061,7 @@
         <v>587</v>
       </c>
       <c r="L577" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -21078,7 +21081,7 @@
         <v>1722</v>
       </c>
       <c r="L578" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="579" spans="1:12">
@@ -21098,7 +21101,7 @@
         <v>1723</v>
       </c>
       <c r="L579" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -21118,7 +21121,7 @@
         <v>1724</v>
       </c>
       <c r="L580" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="581" spans="1:12">
@@ -21138,7 +21141,7 @@
         <v>591</v>
       </c>
       <c r="L581" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="582" spans="1:12">
@@ -21178,7 +21181,7 @@
         <v>1725</v>
       </c>
       <c r="L583" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="584" spans="1:12">
@@ -21198,7 +21201,7 @@
         <v>594</v>
       </c>
       <c r="L584" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="585" spans="1:12">
@@ -21218,7 +21221,7 @@
         <v>1726</v>
       </c>
       <c r="L585" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="586" spans="1:12">
@@ -21238,7 +21241,7 @@
         <v>596</v>
       </c>
       <c r="L586" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="587" spans="1:12">
@@ -21258,7 +21261,7 @@
         <v>597</v>
       </c>
       <c r="L587" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="588" spans="1:12">
@@ -21342,7 +21345,7 @@
         <v>1728</v>
       </c>
       <c r="L590" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="591" spans="1:12">
@@ -21517,7 +21520,7 @@
         <v>2558</v>
       </c>
       <c r="L598" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="599" spans="1:12">
@@ -21537,7 +21540,7 @@
         <v>609</v>
       </c>
       <c r="L599" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="600" spans="1:12">
@@ -21577,7 +21580,7 @@
         <v>1731</v>
       </c>
       <c r="L601" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="602" spans="1:12">
@@ -21640,7 +21643,7 @@
         <v>2559</v>
       </c>
       <c r="L604" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="605" spans="1:12">
@@ -21660,7 +21663,7 @@
         <v>1734</v>
       </c>
       <c r="L605" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -21712,7 +21715,7 @@
         <v>1735</v>
       </c>
       <c r="L607" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="608" spans="1:12">
@@ -21744,7 +21747,7 @@
         <v>2561</v>
       </c>
       <c r="L608" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="609" spans="1:12">
@@ -21764,7 +21767,7 @@
         <v>1736</v>
       </c>
       <c r="L609" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="610" spans="1:12">
@@ -21802,7 +21805,7 @@
         <v>2562</v>
       </c>
       <c r="L610" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="611" spans="1:12">
@@ -21842,7 +21845,7 @@
         <v>622</v>
       </c>
       <c r="L612" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="613" spans="1:12">
@@ -21862,7 +21865,7 @@
         <v>1737</v>
       </c>
       <c r="L613" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="614" spans="1:12">
@@ -21882,7 +21885,7 @@
         <v>1738</v>
       </c>
       <c r="L614" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="615" spans="1:12">
@@ -21939,7 +21942,7 @@
         <v>627</v>
       </c>
       <c r="L617" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="618" spans="1:12">
@@ -22054,7 +22057,7 @@
         <v>2564</v>
       </c>
       <c r="L622" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="623" spans="1:12">
@@ -22097,7 +22100,7 @@
         <v>2565</v>
       </c>
       <c r="L624" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="625" spans="1:12">
@@ -22117,7 +22120,7 @@
         <v>635</v>
       </c>
       <c r="L625" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="626" spans="1:12">
@@ -22137,7 +22140,7 @@
         <v>636</v>
       </c>
       <c r="L626" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="627" spans="1:12">
@@ -22293,7 +22296,7 @@
         <v>642</v>
       </c>
       <c r="L632" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="633" spans="1:12">
@@ -22331,7 +22334,7 @@
         <v>2570</v>
       </c>
       <c r="L633" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="634" spans="1:12">
@@ -22351,7 +22354,7 @@
         <v>644</v>
       </c>
       <c r="L634" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="635" spans="1:12">
@@ -22371,7 +22374,7 @@
         <v>645</v>
       </c>
       <c r="L635" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="636" spans="1:12">
@@ -22452,7 +22455,7 @@
         <v>648</v>
       </c>
       <c r="L638" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="639" spans="1:12">
@@ -22472,7 +22475,7 @@
         <v>1745</v>
       </c>
       <c r="L639" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="640" spans="1:12">
@@ -22504,7 +22507,7 @@
         <v>2573</v>
       </c>
       <c r="L640" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="641" spans="1:12">
@@ -22604,7 +22607,7 @@
         <v>655</v>
       </c>
       <c r="L645" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="646" spans="1:12">
@@ -22719,7 +22722,7 @@
         <v>2576</v>
       </c>
       <c r="L650" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="651" spans="1:12">
@@ -22822,7 +22825,7 @@
         <v>665</v>
       </c>
       <c r="L655" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="656" spans="1:12">
@@ -22845,7 +22848,7 @@
         <v>2578</v>
       </c>
       <c r="L656" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="657" spans="1:12">
@@ -22874,7 +22877,7 @@
         <v>979</v>
       </c>
       <c r="L657" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="658" spans="1:12">
@@ -22906,7 +22909,7 @@
         <v>2579</v>
       </c>
       <c r="L658" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="659" spans="1:12">
@@ -22938,7 +22941,7 @@
         <v>2580</v>
       </c>
       <c r="L659" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="660" spans="1:12">
@@ -22958,7 +22961,7 @@
         <v>670</v>
       </c>
       <c r="L660" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="661" spans="1:12">
@@ -22978,7 +22981,7 @@
         <v>671</v>
       </c>
       <c r="L661" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -22998,7 +23001,7 @@
         <v>672</v>
       </c>
       <c r="L662" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="663" spans="1:12">
@@ -23035,7 +23038,7 @@
         <v>674</v>
       </c>
       <c r="L664" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="665" spans="1:12">
@@ -23064,7 +23067,7 @@
         <v>2581</v>
       </c>
       <c r="L665" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="666" spans="1:12">
@@ -23096,7 +23099,7 @@
         <v>2582</v>
       </c>
       <c r="L666" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="667" spans="1:12">
@@ -23148,7 +23151,7 @@
         <v>2583</v>
       </c>
       <c r="L668" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="669" spans="1:12">
@@ -23168,7 +23171,7 @@
         <v>1752</v>
       </c>
       <c r="L669" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="670" spans="1:12">
@@ -23343,7 +23346,7 @@
         <v>687</v>
       </c>
       <c r="L677" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="678" spans="1:12">
@@ -23464,7 +23467,7 @@
         <v>2590</v>
       </c>
       <c r="L682" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="683" spans="1:12">
@@ -23484,7 +23487,7 @@
         <v>693</v>
       </c>
       <c r="L683" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="684" spans="1:12">
@@ -23504,7 +23507,7 @@
         <v>694</v>
       </c>
       <c r="L684" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="685" spans="1:12">
@@ -23524,7 +23527,7 @@
         <v>1755</v>
       </c>
       <c r="L685" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="686" spans="1:12">
@@ -23567,7 +23570,7 @@
         <v>1756</v>
       </c>
       <c r="L687" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="688" spans="1:12">
@@ -23633,7 +23636,7 @@
         <v>2593</v>
       </c>
       <c r="L690" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="691" spans="1:12">
@@ -23656,7 +23659,7 @@
         <v>2594</v>
       </c>
       <c r="L691" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="692" spans="1:12">
@@ -23699,7 +23702,7 @@
         <v>1758</v>
       </c>
       <c r="L693" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="694" spans="1:12">
@@ -23742,7 +23745,7 @@
         <v>998</v>
       </c>
       <c r="L695" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="696" spans="1:12">
@@ -23805,7 +23808,7 @@
         <v>2597</v>
       </c>
       <c r="L698" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="699" spans="1:12">
@@ -23825,7 +23828,7 @@
         <v>1761</v>
       </c>
       <c r="L699" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -23845,7 +23848,7 @@
         <v>1000</v>
       </c>
       <c r="L700" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="701" spans="1:12">
@@ -23885,7 +23888,7 @@
         <v>1002</v>
       </c>
       <c r="L702" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="703" spans="1:12">
@@ -24003,7 +24006,7 @@
         <v>2600</v>
       </c>
       <c r="L707" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -24020,7 +24023,7 @@
         <v>1762</v>
       </c>
       <c r="L708" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="709" spans="1:12">
@@ -24201,7 +24204,7 @@
         <v>2605</v>
       </c>
       <c r="L716" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
   </sheetData>
